--- a/DATA/IsoData/NIWOIsoData.xlsx
+++ b/DATA/IsoData/NIWOIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">4940dfea-d530-4fa3-84dd-c131ad9133c2</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd3aa613-5b57-4fc4-9cbb-f3ed4de3be41</t>
   </si>
   <si>
     <t xml:space="preserve">NIWO.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155954Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2b5dd891-7cd4-43b6-97c3-48fc2c8d0867</t>
+    <t xml:space="preserve">20210112T150642Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9a7dfd05-51c7-406e-ac38-884efb8b73e7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20181218.1056</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000051509</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160033Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">539c5d04-b6bd-4974-a8a3-df665f1cc836</t>
+    <t xml:space="preserve">20210112T150224Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">618b7c34-d2ea-4a6d-a258-b20c16007c34</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190103.1400</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000051510</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163646Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11ae65bd-3550-4827-b104-9db755d73a1e</t>
+    <t xml:space="preserve">20210112T164347Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d76c86ce-7598-4379-82a3-40e81eafeb0f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190115.1325</t>
@@ -131,7 +137,7 @@
     <t xml:space="preserve">A00000051511</t>
   </si>
   <si>
-    <t xml:space="preserve">20634c26-226a-4081-8a2a-c4f0672d7b76</t>
+    <t xml:space="preserve">6689698c-8a98-45e6-a607-2fb2051e88ac</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190409.1159</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000089622</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163500Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f1fa4241-de5a-441a-a2f9-f0dac221b561</t>
+    <t xml:space="preserve">20210112T163616Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0a093078-d0cf-4247-8256-99b22704fff0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190424.1319</t>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">A00000089652</t>
   </si>
   <si>
-    <t xml:space="preserve">8f19272a-7e61-4771-9253-7b2076986ce1</t>
+    <t xml:space="preserve">7ed7cf3a-99ff-4ea7-90b3-e0acc81e05e5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190507.0944</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000089679</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153937Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0645ec15-e27a-4d2e-a097-4514d008b62a</t>
+    <t xml:space="preserve">20210112T155306Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b12854d-025a-46cc-9a20-8c9614e374c3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190605.1159</t>
@@ -185,10 +191,10 @@
     <t xml:space="preserve">A00000051574</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160408Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560e136b-c53e-4ac5-8f9c-96f6ac989d81</t>
+    <t xml:space="preserve">20210112T155441Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d80b822c-6614-49ad-8266-5decd692eedc</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190618.1034</t>
@@ -200,7 +206,7 @@
     <t xml:space="preserve">A00000090707</t>
   </si>
   <si>
-    <t xml:space="preserve">35a7577e-cb4d-4c19-a4a5-6e1114a794c7</t>
+    <t xml:space="preserve">6bed2515-63b7-49d4-a839-6329d222eb4d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190702.1058</t>
@@ -212,10 +218,10 @@
     <t xml:space="preserve">A00000091071</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160525Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79ec7971-8c87-4a85-9c79-db6d5f45405f</t>
+    <t xml:space="preserve">20210112T162214Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9659e0a-da88-423f-9ba1-37bceb094ea8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190716.1022</t>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">A00000091004</t>
   </si>
   <si>
-    <t xml:space="preserve">7bb518aa-40c2-45a9-876f-bba82c73dc73</t>
+    <t xml:space="preserve">9b0f15a0-e2b2-4182-8c66-55aff6284989</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190731.0035</t>
@@ -239,7 +245,7 @@
     <t xml:space="preserve">A00000091522</t>
   </si>
   <si>
-    <t xml:space="preserve">33641413-544d-4738-adc3-a695207dc0ce</t>
+    <t xml:space="preserve">95d0bcfc-27fc-410b-812c-264487f9d3f2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190813.1012</t>
@@ -251,10 +257,10 @@
     <t xml:space="preserve">A00000051572</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160147Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8706a240-d837-4ca2-8d24-34e547c3d626</t>
+    <t xml:space="preserve">20210112T155103Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8e5c190-9928-4bea-9fb3-27a6f5a65882</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190909.1130</t>
@@ -266,10 +272,10 @@
     <t xml:space="preserve">A00000092224</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160255Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b7145126-f10f-45c8-a4d0-0a2ab9dbe158</t>
+    <t xml:space="preserve">20210112T155457Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b31c1ae-23b0-40b2-8f98-d3c08ff86526</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20190924.1033</t>
@@ -281,7 +287,7 @@
     <t xml:space="preserve">A00000092263</t>
   </si>
   <si>
-    <t xml:space="preserve">9d6db6c7-3c03-4097-95c8-e3e85ee44449</t>
+    <t xml:space="preserve">fe16193a-ceab-44fc-a7f3-f67f7855bd1a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20191008.1039</t>
@@ -293,10 +299,10 @@
     <t xml:space="preserve">A00000093204</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160013Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b1ce76ea-0697-4c09-97a6-9d7169ac9387</t>
+    <t xml:space="preserve">20210112T150333Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b765ef4-3601-4258-b2c7-49114b56b979</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20191204.1100</t>
@@ -308,10 +314,10 @@
     <t xml:space="preserve">A00000089739</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155911Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e6cb5285-f6a3-481a-8ad2-7420513e093f</t>
+    <t xml:space="preserve">20210112T150101Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">014b750b-74fb-4b7c-ab37-e65f4e3ba7ff</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20191217.1501</t>
@@ -323,7 +329,7 @@
     <t xml:space="preserve">A00000089823</t>
   </si>
   <si>
-    <t xml:space="preserve">a642862b-80ec-43ae-8a99-65c828beb695</t>
+    <t xml:space="preserve">6cfece4f-d14f-4147-a9be-f8fe4826a531</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20191231.1110</t>
@@ -335,7 +341,7 @@
     <t xml:space="preserve">A00000089740</t>
   </si>
   <si>
-    <t xml:space="preserve">c1e633a8-a0af-4e15-9c57-77925fd8efe2</t>
+    <t xml:space="preserve">f5b9a7e8-2d37-4d36-ba22-4b94a9ee6d11</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NIWO.20200310.1159</t>
@@ -347,7 +353,79 @@
     <t xml:space="preserve">A00000121647</t>
   </si>
   <si>
-    <t xml:space="preserve">20200706T134242Z</t>
+    <t xml:space="preserve">20210112T164450Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21193aff-3ee7-48ef-aeb1-b3366e0126a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200630.1236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200630.1236.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T160356Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c142ce3-8039-435d-b42c-8ba4e8a7adf0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200713.1054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200713.1054.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154816Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43856fe1-4f2b-4461-a107-09a16cc5dca4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200729.1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200729.1019.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5c540487-41e4-421a-85ec-813b51da7a78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200810.1120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200810.1120.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T155035Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec646568-1458-4ded-bfa3-95966c04b3aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200825.1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NIWO.20200825.1038.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121670</t>
   </si>
 </sst>
 </file>
@@ -685,7 +763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,23 +817,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43398.6840277778</v>
@@ -776,35 +857,38 @@
         <v>0.099</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43418.8652777778</v>
@@ -825,35 +909,38 @@
         <v>0.085</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43452.75</v>
@@ -874,35 +961,38 @@
         <v>0.177</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43468.8798611111</v>
@@ -923,35 +1013,38 @@
         <v>0.459</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43551.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43550.7013888889</v>
@@ -972,35 +1065,38 @@
         <v>0.311</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43564.7604166667</v>
@@ -1021,35 +1117,38 @@
         <v>0.59</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43579.8159722222</v>
@@ -1070,35 +1169,38 @@
         <v>0.356</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43592.6625</v>
@@ -1119,35 +1221,38 @@
         <v>0.076</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43621.7611111111</v>
@@ -1168,35 +1273,38 @@
         <v>0.041</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43634.6729166667</v>
@@ -1217,35 +1325,38 @@
         <v>0.084</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43648.7125</v>
@@ -1266,35 +1377,38 @@
         <v>0.055</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43662.6868055556</v>
@@ -1315,35 +1429,38 @@
         <v>0.108</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43677.7791666667</v>
@@ -1364,35 +1481,38 @@
         <v>0.148</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43703.6784722222</v>
@@ -1413,35 +1533,38 @@
         <v>0.056</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43717.7347222222</v>
@@ -1462,35 +1585,38 @@
         <v>0.165</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43732.6958333333</v>
@@ -1511,35 +1637,38 @@
         <v>0.197</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43746.6923611111</v>
@@ -1560,35 +1689,38 @@
         <v>0.07</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43803.75</v>
@@ -1609,35 +1741,38 @@
         <v>0.402</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43816.9277777778</v>
@@ -1658,35 +1793,38 @@
         <v>0.193</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43859.7208333333</v>
@@ -1707,17 +1845,280 @@
         <v>0.021</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43985.75</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>43997.8243055556</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>44012.775</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-13.533</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-98.107</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>44067.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>119</v>
+      </c>
+      <c r="R22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>44012.7881944444</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>44025.7041666667</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-6.543</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-47.737</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>44025.7090277778</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>44041.6798611111</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-7.058</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-46.66</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>44041.6875</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>44053.7222222222</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-33.561</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>44053.7284722222</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>44068.6930555556</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-6.979</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-50.976</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>133</v>
+      </c>
+      <c r="R26" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
